--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Bryan_Nelson/Joseph_Bryan_Nelson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Bryan_Nelson/Joseph_Bryan_Nelson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Bryan Nelson, né le 14 mars 1932 à Shipley et mort le 29 juin 2015 à Kirkcudbright, est un ornithologue et universitaire britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autorité de premier plan sur les oiseaux de mer (notamment le Fou de Bassan),  il publie de nombreux ouvrages dessus tout en enseignant la zoologie à l'université d'Aberdeen. Il est également l'un des pionniers de la recherche ornithologique en Jordanie, sur l'île Christmas et dans les îles Galápagos.
 Il a contribué à la création du parc national de l'île Christmas (en) qui a contribué à préserver l'habitat du Fou d'Abbott en voie de disparition.
